--- a/Modle/_BOM.xlsx
+++ b/Modle/_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_PersonalProjects\MyReducer\Modle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F6FA86-6928-452E-80C6-F7C8AC3E281D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD180DAB-B172-431B-8EDE-E40015465898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16035" yWindow="780" windowWidth="19305" windowHeight="18105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="155">
   <si>
     <t>BOM序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注1：“数量”一栏，若该物料只在某个部件中出现，则填该物料的数量；若该物料在多个部件中出现，则填“n/m”（m、n的含义分别是，该物料在整个装配体中的数量、该物料在当前部件中的数量）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>013</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +154,485 @@
   </si>
   <si>
     <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyMotor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepperMotor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepperMotor_Axis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepperMotor_Shell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_Cover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_Shell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_OutputPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_PGT_Sun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_PlanetGearTrains1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_PGT_SunGear1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB/T 276-2013[617/8-2z]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_PGT_Planet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_PlanetCarriar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB/T 276-2013[617/3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_PlanetGearTrains2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_PlanetGear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_PGT_Sun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_PGT_SunGear2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_PGT_Joint1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_PGT_Planet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A00FTTP0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A01FT010101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02FC010101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02FC010201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A01FT010201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02FZ020101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02FZ020201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02FZ020301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02FZ020401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02FT020501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A03FT050101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04FZ010101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04BC010204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A03FT050201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04FZ020106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04FZ020202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04BC020306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>❌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02FT020601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A03FT060101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04FZ010301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04FZ010401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04FZ010501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A03FT060201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速器与42步进电机装配后的模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42步进电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42步进电机的轴（转子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42步进电机的壳体（定子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级行星减速器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速器的基底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速器的上盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速器的外壳，其上集成了两级行星轮系共用的外齿圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速器的输出端子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一级太阳轮的轴系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一级太阳轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一级太阳轮的轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一级行星轮系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一级行星轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一级行星轮的轴系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一级行星架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一级行星轮的轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二级行星轮系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二级太阳轮的轮系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二级太阳轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二级太阳轮的轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接件1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接件2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接件3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二级行星轮的轴系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二级行星轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二级行星架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二级行星轮的轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于3D打印制造的自由度较高，部分轴系中的轴与其上的齿轮采用一体化设计，
+CNC制造难度增大，故该部分物料只推荐使用3D打印的方式制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅供仿真使用，实际采购物料为一体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\MyMotor.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\StepperMotter.SLDASM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\StepperMotor_Axis.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\StepperMotor_Shell.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer.SLDASM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_Base.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_Cover.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_Shell.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_OutputPort.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_PlanetGearTrains1.SLDASM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_PGT_Sun1.SLDASM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_PGT_SunGear1.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Bearings\GB/T 276-2013[617/8-2z].SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_PGT_Planet1.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_PlanetGear.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_PlanetCarriar.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Bearings\GB/T 276-2013[617/3].SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_PlanetGearTrains2.SLDASM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_PGT_Sun2.SLDASM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_PGT_SunGear2.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Bearing\GB/T 276-2013[617/8-2z].SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_PGT_Joint1.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_PGT_Joint2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_PGT_Joint2.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reducer_PGT_Joint3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_PGT_Joint3.SLDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\Reducer_PGT_Planet2.SLDASM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Model\GB/T 276-2013[617/3].SALDPRT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +640,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,14 +669,6 @@
       <color theme="4" tint="-0.499984740745262"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,7 +724,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +761,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -506,19 +1011,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -537,19 +1029,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -557,52 +1036,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -640,11 +1073,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -656,36 +1111,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -695,185 +1135,236 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1156,55 +1647,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="3" customWidth="1"/>
-    <col min="2" max="6" width="3.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="5.75" customWidth="1"/>
-    <col min="9" max="9" width="27.875" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.75" customWidth="1"/>
-    <col min="12" max="12" width="36.5" customWidth="1"/>
-    <col min="13" max="13" width="63.125" customWidth="1"/>
-    <col min="14" max="14" width="119.25" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" style="3" customWidth="1"/>
+    <col min="2" max="6" width="3.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="44.44140625" customWidth="1"/>
+    <col min="13" max="13" width="50.109375" customWidth="1"/>
+    <col min="14" max="14" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="47" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="56" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="1"/>
@@ -1236,35 +1727,35 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
     </row>
-    <row r="2" spans="1:42" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:42" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="45"/>
+      <c r="H2" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="57"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1294,23 +1785,37 @@
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
     </row>
-    <row r="3" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
+      <c r="B3" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="55"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1340,23 +1845,37 @@
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
     </row>
-    <row r="4" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="58"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1386,23 +1905,39 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
     </row>
-    <row r="5" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="23"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
+      <c r="L5" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="94" t="s">
+        <v>125</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1432,23 +1967,37 @@
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="16"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="92"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1478,23 +2027,37 @@
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
     </row>
-    <row r="7" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" s="58"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1524,23 +2087,37 @@
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
     </row>
-    <row r="8" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="23"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="K8" s="4"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
+      <c r="L8" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="27"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1570,23 +2147,37 @@
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
     </row>
-    <row r="9" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="23"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="K9" s="4"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
+      <c r="L9" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" s="27"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1616,23 +2207,37 @@
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
     </row>
-    <row r="10" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="23"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
+      <c r="L10" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="27"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1662,23 +2267,37 @@
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
     </row>
-    <row r="11" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="23"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="K11" s="4"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
+      <c r="L11" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="27"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1708,23 +2327,39 @@
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
     </row>
-    <row r="12" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="23"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="K12" s="4"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
+      <c r="L12" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="93" t="s">
+        <v>124</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1754,23 +2389,37 @@
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
     </row>
-    <row r="13" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="23"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="81"/>
+      <c r="G13" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="K13" s="4"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
+      <c r="L13" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="91"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1800,23 +2449,37 @@
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
     </row>
-    <row r="14" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="23"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="K14" s="4"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
+      <c r="L14" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" s="91"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1846,23 +2509,37 @@
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
     </row>
-    <row r="15" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="23"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="K15" s="4"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
+      <c r="L15" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="91"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1892,23 +2569,37 @@
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
     </row>
-    <row r="16" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="23"/>
+    <row r="16" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="81"/>
+      <c r="G16" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="16"/>
+      <c r="L16" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" s="91"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1938,23 +2629,37 @@
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
     </row>
-    <row r="17" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="23"/>
+      <c r="G17" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="K17" s="4"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
+      <c r="L17" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" s="91"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1984,23 +2689,37 @@
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
     </row>
-    <row r="18" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="4"/>
+    <row r="18" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="K18" s="4"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
+      <c r="L18" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="N18" s="91"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2030,24 +2749,38 @@
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
     </row>
-    <row r="19" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="4"/>
+    <row r="19" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>56</v>
+      </c>
       <c r="K19" s="4"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="1"/>
+      <c r="L19" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" s="91"/>
+      <c r="O19" s="52"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2076,24 +2809,40 @@
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
     </row>
-    <row r="20" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="23"/>
+    <row r="20" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="K20" s="4"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="1"/>
+      <c r="L20" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" s="52"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2122,24 +2871,38 @@
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
     </row>
-    <row r="21" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="23"/>
+    <row r="21" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="81"/>
+      <c r="G21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="K21" s="4"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="1"/>
+      <c r="L21" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="N21" s="91"/>
+      <c r="O21" s="52"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2168,24 +2931,38 @@
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
     </row>
-    <row r="22" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="23"/>
+    <row r="22" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="K22" s="4"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="1"/>
+      <c r="L22" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="N22" s="91"/>
+      <c r="O22" s="52"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2214,24 +2991,38 @@
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
     </row>
-    <row r="23" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="23"/>
+      <c r="G23" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="1"/>
+      <c r="L23" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N23" s="91"/>
+      <c r="O23" s="52"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2260,24 +3051,38 @@
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
     </row>
-    <row r="24" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="4"/>
+    <row r="24" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="54">
+        <v>1</v>
+      </c>
       <c r="K24" s="4"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="1"/>
+      <c r="L24" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="N24" s="91"/>
+      <c r="O24" s="52"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2306,24 +3111,38 @@
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
     </row>
-    <row r="25" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="4"/>
+    <row r="25" spans="1:42" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="54">
+        <v>1</v>
+      </c>
       <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="1"/>
+      <c r="L25" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="N25" s="91"/>
+      <c r="O25" s="52"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2352,24 +3171,38 @@
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
     </row>
-    <row r="26" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="1"/>
+    <row r="26" spans="1:42" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" s="52">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="N26" s="91"/>
+      <c r="O26" s="52"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2398,22 +3231,38 @@
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="1"/>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="85"/>
+      <c r="G27" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="N27" s="91"/>
+      <c r="O27" s="52"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2442,20 +3291,38 @@
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="1"/>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="N28" s="91"/>
+      <c r="O28" s="52"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -2484,21 +3351,37 @@
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A29" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="N29" s="91"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -2528,21 +3411,37 @@
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="M30" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="N30" s="92"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2572,23 +3471,8 @@
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="16"/>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="N31" s="11"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -2618,21 +3502,8 @@
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="16"/>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="N32" s="11"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -2662,21 +3533,8 @@
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="16"/>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="N33" s="11"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -2706,23 +3564,23 @@
       <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="16"/>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="11"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -2752,21 +3610,21 @@
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="16"/>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="11"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -2796,21 +3654,21 @@
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="16"/>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="11"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -2840,21 +3698,23 @@
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="11"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -2884,21 +3744,21 @@
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="11"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -2928,21 +3788,21 @@
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="11"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -2972,7 +3832,7 @@
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2985,8 +3845,8 @@
       <c r="J40" s="2"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -3016,7 +3876,7 @@
       <c r="AO40" s="1"/>
       <c r="AP40" s="1"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3029,8 +3889,8 @@
       <c r="J41" s="2"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -3060,7 +3920,7 @@
       <c r="AO41" s="1"/>
       <c r="AP41" s="1"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3073,8 +3933,8 @@
       <c r="J42" s="2"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -3104,7 +3964,7 @@
       <c r="AO42" s="1"/>
       <c r="AP42" s="1"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3117,8 +3977,8 @@
       <c r="J43" s="2"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -3148,7 +4008,7 @@
       <c r="AO43" s="1"/>
       <c r="AP43" s="1"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3192,7 +4052,7 @@
       <c r="AO44" s="1"/>
       <c r="AP44" s="1"/>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3236,7 +4096,7 @@
       <c r="AO45" s="1"/>
       <c r="AP45" s="1"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3280,7 +4140,7 @@
       <c r="AO46" s="1"/>
       <c r="AP46" s="1"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3324,7 +4184,7 @@
       <c r="AO47" s="1"/>
       <c r="AP47" s="1"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3368,7 +4228,7 @@
       <c r="AO48" s="1"/>
       <c r="AP48" s="1"/>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3412,7 +4272,7 @@
       <c r="AO49" s="1"/>
       <c r="AP49" s="1"/>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3456,7 +4316,7 @@
       <c r="AO50" s="1"/>
       <c r="AP50" s="1"/>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3500,7 +4360,7 @@
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3544,7 +4404,7 @@
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3588,7 +4448,7 @@
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3632,7 +4492,7 @@
       <c r="AO54" s="1"/>
       <c r="AP54" s="1"/>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3676,7 +4536,7 @@
       <c r="AO55" s="1"/>
       <c r="AP55" s="1"/>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3720,7 +4580,7 @@
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3764,7 +4624,7 @@
       <c r="AO57" s="1"/>
       <c r="AP57" s="1"/>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3808,7 +4668,7 @@
       <c r="AO58" s="1"/>
       <c r="AP58" s="1"/>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3852,7 +4712,7 @@
       <c r="AO59" s="1"/>
       <c r="AP59" s="1"/>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3896,7 +4756,7 @@
       <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3940,7 +4800,7 @@
       <c r="AO61" s="1"/>
       <c r="AP61" s="1"/>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3984,7 +4844,7 @@
       <c r="AO62" s="1"/>
       <c r="AP62" s="1"/>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4028,7 +4888,7 @@
       <c r="AO63" s="1"/>
       <c r="AP63" s="1"/>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4072,7 +4932,7 @@
       <c r="AO64" s="1"/>
       <c r="AP64" s="1"/>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4116,7 +4976,7 @@
       <c r="AO65" s="1"/>
       <c r="AP65" s="1"/>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4160,7 +5020,7 @@
       <c r="AO66" s="1"/>
       <c r="AP66" s="1"/>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4204,7 +5064,7 @@
       <c r="AO67" s="1"/>
       <c r="AP67" s="1"/>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4248,7 +5108,7 @@
       <c r="AO68" s="1"/>
       <c r="AP68" s="1"/>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4292,7 +5152,7 @@
       <c r="AO69" s="1"/>
       <c r="AP69" s="1"/>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4336,7 +5196,7 @@
       <c r="AO70" s="1"/>
       <c r="AP70" s="1"/>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4380,7 +5240,7 @@
       <c r="AO71" s="1"/>
       <c r="AP71" s="1"/>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4424,7 +5284,7 @@
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4468,7 +5328,7 @@
       <c r="AO73" s="1"/>
       <c r="AP73" s="1"/>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4512,7 +5372,7 @@
       <c r="AO74" s="1"/>
       <c r="AP74" s="1"/>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4556,7 +5416,7 @@
       <c r="AO75" s="1"/>
       <c r="AP75" s="1"/>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4600,7 +5460,7 @@
       <c r="AO76" s="1"/>
       <c r="AP76" s="1"/>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4644,7 +5504,7 @@
       <c r="AO77" s="1"/>
       <c r="AP77" s="1"/>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4688,7 +5548,7 @@
       <c r="AO78" s="1"/>
       <c r="AP78" s="1"/>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4732,7 +5592,7 @@
       <c r="AO79" s="1"/>
       <c r="AP79" s="1"/>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4776,7 +5636,7 @@
       <c r="AO80" s="1"/>
       <c r="AP80" s="1"/>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4820,7 +5680,7 @@
       <c r="AO81" s="1"/>
       <c r="AP81" s="1"/>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4864,7 +5724,7 @@
       <c r="AO82" s="1"/>
       <c r="AP82" s="1"/>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4908,7 +5768,7 @@
       <c r="AO83" s="1"/>
       <c r="AP83" s="1"/>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4952,7 +5812,7 @@
       <c r="AO84" s="1"/>
       <c r="AP84" s="1"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4996,7 +5856,7 @@
       <c r="AO85" s="1"/>
       <c r="AP85" s="1"/>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5040,7 +5900,7 @@
       <c r="AO86" s="1"/>
       <c r="AP86" s="1"/>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5084,7 +5944,7 @@
       <c r="AO87" s="1"/>
       <c r="AP87" s="1"/>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5128,7 +5988,7 @@
       <c r="AO88" s="1"/>
       <c r="AP88" s="1"/>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5172,7 +6032,7 @@
       <c r="AO89" s="1"/>
       <c r="AP89" s="1"/>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5216,7 +6076,7 @@
       <c r="AO90" s="1"/>
       <c r="AP90" s="1"/>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5260,7 +6120,7 @@
       <c r="AO91" s="1"/>
       <c r="AP91" s="1"/>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5304,7 +6164,7 @@
       <c r="AO92" s="1"/>
       <c r="AP92" s="1"/>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5348,7 +6208,7 @@
       <c r="AO93" s="1"/>
       <c r="AP93" s="1"/>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5393,12 +6253,15 @@
       <c r="AP94" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="N12:N19"/>
+    <mergeCell ref="N20:N30"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A37:M39"/>
     <mergeCell ref="A34:M36"/>
-    <mergeCell ref="A31:M33"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="I1:I2"/>

--- a/Modle/_BOM.xlsx
+++ b/Modle/_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_PersonalProjects\MyReducer\Modle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD180DAB-B172-431B-8EDE-E40015465898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DEE71D-DD36-41C7-9865-1B6E5ABCB88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="156">
   <si>
     <t>BOM序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,74 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A00FTTP0101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A01FT010101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S02FC010101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S02FC010201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A01FT010201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S02FZ020101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S02FZ020201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S02FZ020301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S02FZ020401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02FT020501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A03FT050101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S04FZ010101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S04BC010204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A03FT050201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S04FZ020106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S04FZ020202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S04BC020306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,30 +304,6 @@
   </si>
   <si>
     <t>❌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02FT020601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A03FT060101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S04FZ010301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S04FZ010401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S04FZ010501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A03FT060201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -633,6 +541,102 @@
   </si>
   <si>
     <t>\Model\GB/T 276-2013[617/3].SALDPRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A00FTTP0101AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A01FT010101AAB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02FC010101AAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02FC010201AAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A01FT010201AAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02FZ020101AAF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02FZ020201AAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02FZ020301AAH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S02FZ020401AAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02FT020501AAJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A03FT050101AAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04FZ010101AAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04BC010204AAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A03FT050201AAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04FZ020106AAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04FZ020202AAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04BC020306AAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02FT020601AAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A03FT060101AAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04FZ010101AAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04FZ010301AAU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04FZ010401AAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S04FZ010501AAW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A03FT060201AAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1099,7 +1103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1207,50 +1211,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,16 +1226,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1298,10 +1256,10 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,13 +1274,13 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,10 +1289,10 @@
     <xf numFmtId="49" fontId="9" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1344,25 +1302,58 @@
     <xf numFmtId="49" fontId="0" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1647,55 +1638,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="3" customWidth="1"/>
-    <col min="2" max="6" width="3.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="9.21875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="44.44140625" customWidth="1"/>
-    <col min="13" max="13" width="50.109375" customWidth="1"/>
-    <col min="14" max="14" width="81.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="3" customWidth="1"/>
+    <col min="2" max="6" width="3.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="5.75" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="44.5" customWidth="1"/>
+    <col min="13" max="13" width="50.125" customWidth="1"/>
+    <col min="14" max="14" width="81.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:42" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="40" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="37" t="s">
+      <c r="H1" s="83"/>
+      <c r="I1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" s="37" t="s">
+      <c r="L1" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="79" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="1"/>
@@ -1727,8 +1718,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
     </row>
-    <row r="2" spans="1:42" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
+    <row r="2" spans="1:42" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
       <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
@@ -1750,12 +1741,12 @@
       <c r="H2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="57"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="80"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1785,22 +1776,22 @@
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
     </row>
-    <row r="3" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="64"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="33" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I3" s="22" t="s">
         <v>37</v>
@@ -1810,12 +1801,12 @@
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="23" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="N3" s="55"/>
+        <v>73</v>
+      </c>
+      <c r="N3" s="41"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1845,22 +1836,22 @@
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
     </row>
-    <row r="4" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="30" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>39</v>
@@ -1870,12 +1861,12 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="23" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" s="58"/>
+        <v>74</v>
+      </c>
+      <c r="N4" s="42"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1905,22 +1896,22 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
     </row>
-    <row r="5" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="29"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="68" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>71</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>40</v>
@@ -1930,13 +1921,13 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="23" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" s="94" t="s">
-        <v>125</v>
+        <v>75</v>
+      </c>
+      <c r="N5" s="76" t="s">
+        <v>102</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1967,22 +1958,22 @@
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="32" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>41</v>
@@ -1992,12 +1983,12 @@
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="23" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="N6" s="92"/>
+        <v>76</v>
+      </c>
+      <c r="N6" s="75"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -2027,22 +2018,22 @@
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
     </row>
-    <row r="7" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="34"/>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="77"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="30" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>42</v>
@@ -2052,12 +2043,12 @@
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="23" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" s="58"/>
+        <v>77</v>
+      </c>
+      <c r="N7" s="42"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -2087,22 +2078,21 @@
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
     </row>
-    <row r="8" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="29"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="31" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>43</v>
@@ -2112,10 +2102,10 @@
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="23" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="1"/>
@@ -2147,22 +2137,22 @@
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
     </row>
-    <row r="9" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="29"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="78" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="31" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>44</v>
@@ -2172,10 +2162,10 @@
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="23" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="1"/>
@@ -2207,22 +2197,22 @@
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
     </row>
-    <row r="10" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="29"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="78" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="31" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>45</v>
@@ -2232,10 +2222,10 @@
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="23" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="1"/>
@@ -2267,22 +2257,22 @@
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
     </row>
-    <row r="11" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="29"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="78" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="31" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>46</v>
@@ -2292,10 +2282,10 @@
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="23" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" s="1"/>
@@ -2327,22 +2317,22 @@
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
     </row>
-    <row r="12" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="29"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="78" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
       <c r="G12" s="31" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>48</v>
@@ -2352,13 +2342,13 @@
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="M12" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="N12" s="93" t="s">
-        <v>124</v>
+        <v>113</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" s="73" t="s">
+        <v>101</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2389,22 +2379,22 @@
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
     </row>
-    <row r="13" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="29"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="80" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="81"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="31" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>47</v>
@@ -2414,12 +2404,12 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="23" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="N13" s="91"/>
+        <v>82</v>
+      </c>
+      <c r="N13" s="74"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2449,22 +2439,22 @@
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
     </row>
-    <row r="14" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="29"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="82" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="66" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>49</v>
@@ -2474,12 +2464,12 @@
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="23" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N14" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="N14" s="74"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2509,22 +2499,22 @@
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
     </row>
-    <row r="15" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="29"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="82" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="66" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>50</v>
@@ -2534,12 +2524,12 @@
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="23" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N15" s="91"/>
+        <v>84</v>
+      </c>
+      <c r="N15" s="74"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -2569,22 +2559,22 @@
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
     </row>
-    <row r="16" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="80" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="81"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="31" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>52</v>
@@ -2594,12 +2584,12 @@
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="M16" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="N16" s="91"/>
+        <v>117</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="74"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -2629,22 +2619,22 @@
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
     </row>
-    <row r="17" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="82" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="66" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>58</v>
@@ -2654,12 +2644,12 @@
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="23" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="N17" s="91"/>
+        <v>86</v>
+      </c>
+      <c r="N17" s="74"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -2689,22 +2679,22 @@
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
     </row>
-    <row r="18" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="29"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="82" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="66" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>53</v>
@@ -2714,12 +2704,12 @@
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="23" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="N18" s="91"/>
+        <v>88</v>
+      </c>
+      <c r="N18" s="74"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2749,22 +2739,22 @@
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
     </row>
-    <row r="19" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="29"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="82" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="66" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>54</v>
@@ -2774,13 +2764,13 @@
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="23" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="N19" s="91"/>
-      <c r="O19" s="52"/>
+        <v>89</v>
+      </c>
+      <c r="N19" s="74"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2809,22 +2799,22 @@
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
     </row>
-    <row r="20" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="29"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="84" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="31" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>55</v>
@@ -2834,15 +2824,15 @@
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="23" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="N20" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="O20" s="52"/>
+        <v>90</v>
+      </c>
+      <c r="N20" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2871,22 +2861,22 @@
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
     </row>
-    <row r="21" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="29"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="80" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="81"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="31" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>59</v>
@@ -2896,13 +2886,13 @@
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="23" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="N21" s="91"/>
-      <c r="O21" s="52"/>
+        <v>91</v>
+      </c>
+      <c r="N21" s="74"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2931,22 +2921,22 @@
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
     </row>
-    <row r="22" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="29"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="82" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="66" t="s">
         <v>35</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>60</v>
@@ -2956,13 +2946,13 @@
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="23" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="N22" s="91"/>
-      <c r="O22" s="52"/>
+        <v>92</v>
+      </c>
+      <c r="N22" s="74"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2991,22 +2981,22 @@
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
     </row>
-    <row r="23" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="29"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="82" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="66" t="s">
         <v>35</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>50</v>
@@ -3016,13 +3006,13 @@
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="23" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="N23" s="91"/>
-      <c r="O23" s="52"/>
+        <v>93</v>
+      </c>
+      <c r="N23" s="74"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -3051,38 +3041,37 @@
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
     </row>
-    <row r="24" spans="1:42" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="29"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="82" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="37"/>
+      <c r="F24" s="66" t="s">
         <v>35</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="40">
         <v>1</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="23" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="N24" s="91"/>
-      <c r="O24" s="52"/>
+        <v>94</v>
+      </c>
+      <c r="N24" s="74"/>
+      <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -3111,38 +3100,38 @@
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
     </row>
-    <row r="25" spans="1:42" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="29"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="82" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="59" t="s">
-        <v>93</v>
+      <c r="G25" s="43" t="s">
+        <v>153</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J25" s="54">
+        <v>126</v>
+      </c>
+      <c r="J25" s="40">
         <v>1</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="23" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="N25" s="91"/>
-      <c r="O25" s="52"/>
+        <v>95</v>
+      </c>
+      <c r="N25" s="74"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -3171,38 +3160,37 @@
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
     </row>
-    <row r="26" spans="1:42" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
+    <row r="26" spans="1:42" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="29"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="82" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>88</v>
+      <c r="G26" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>71</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="J26" s="52">
+        <v>128</v>
+      </c>
+      <c r="J26" s="1">
         <v>1</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="23" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="N26" s="91"/>
-      <c r="O26" s="52"/>
+        <v>96</v>
+      </c>
+      <c r="N26" s="74"/>
+      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -3231,22 +3219,22 @@
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="29"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="83" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="88" t="s">
-        <v>95</v>
+      <c r="F27" s="69"/>
+      <c r="G27" s="38" t="s">
+        <v>155</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>65</v>
@@ -3256,13 +3244,13 @@
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="23" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="N27" s="91"/>
-      <c r="O27" s="52"/>
+        <v>97</v>
+      </c>
+      <c r="N27" s="74"/>
+      <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -3291,22 +3279,20 @@
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="29"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="86" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="51" t="s">
-        <v>83</v>
+      <c r="G28" s="38" t="s">
+        <v>146</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>58</v>
@@ -3316,13 +3302,13 @@
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="23" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="N28" s="91"/>
-      <c r="O28" s="52"/>
+        <v>98</v>
+      </c>
+      <c r="N28" s="74"/>
+      <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -3351,22 +3337,22 @@
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="29"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="86" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="54" t="s">
-        <v>87</v>
+      <c r="G29" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>53</v>
@@ -3376,12 +3362,12 @@
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="23" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="N29" s="91"/>
+        <v>99</v>
+      </c>
+      <c r="N29" s="74"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -3411,7 +3397,7 @@
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
         <v>30</v>
       </c>
@@ -3419,16 +3405,16 @@
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
       <c r="E30" s="36"/>
-      <c r="F30" s="87" t="s">
+      <c r="F30" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="89" t="s">
-        <v>85</v>
+      <c r="G30" s="72" t="s">
+        <v>148</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I30" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="39" t="s">
         <v>54</v>
       </c>
       <c r="J30" s="35" t="s">
@@ -3436,12 +3422,12 @@
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="M30" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="N30" s="92"/>
+        <v>131</v>
+      </c>
+      <c r="M30" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="N30" s="75"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -3471,7 +3457,7 @@
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="N31" s="11"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -3502,7 +3488,7 @@
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="N32" s="11"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -3533,7 +3519,7 @@
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="N33" s="11"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -3564,22 +3550,22 @@
       <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A34" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
       <c r="N34" s="11"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -3610,20 +3596,20 @@
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
       <c r="N35" s="11"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -3654,20 +3640,20 @@
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
       <c r="N36" s="11"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -3698,22 +3684,22 @@
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A37" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
       <c r="N37" s="11"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -3744,20 +3730,20 @@
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A38" s="81"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
       <c r="N38" s="11"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -3788,20 +3774,20 @@
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A39" s="81"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
       <c r="N39" s="11"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -3832,7 +3818,7 @@
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3876,7 +3862,7 @@
       <c r="AO40" s="1"/>
       <c r="AP40" s="1"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3920,7 +3906,7 @@
       <c r="AO41" s="1"/>
       <c r="AP41" s="1"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3964,7 +3950,7 @@
       <c r="AO42" s="1"/>
       <c r="AP42" s="1"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4008,7 +3994,7 @@
       <c r="AO43" s="1"/>
       <c r="AP43" s="1"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4052,7 +4038,7 @@
       <c r="AO44" s="1"/>
       <c r="AP44" s="1"/>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4096,7 +4082,7 @@
       <c r="AO45" s="1"/>
       <c r="AP45" s="1"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4140,7 +4126,7 @@
       <c r="AO46" s="1"/>
       <c r="AP46" s="1"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4184,7 +4170,7 @@
       <c r="AO47" s="1"/>
       <c r="AP47" s="1"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4228,7 +4214,7 @@
       <c r="AO48" s="1"/>
       <c r="AP48" s="1"/>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4272,7 +4258,7 @@
       <c r="AO49" s="1"/>
       <c r="AP49" s="1"/>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4316,7 +4302,7 @@
       <c r="AO50" s="1"/>
       <c r="AP50" s="1"/>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4360,7 +4346,7 @@
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4404,7 +4390,7 @@
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4448,7 +4434,7 @@
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4492,7 +4478,7 @@
       <c r="AO54" s="1"/>
       <c r="AP54" s="1"/>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4536,7 +4522,7 @@
       <c r="AO55" s="1"/>
       <c r="AP55" s="1"/>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4580,7 +4566,7 @@
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4624,7 +4610,7 @@
       <c r="AO57" s="1"/>
       <c r="AP57" s="1"/>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4668,7 +4654,7 @@
       <c r="AO58" s="1"/>
       <c r="AP58" s="1"/>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4712,7 +4698,7 @@
       <c r="AO59" s="1"/>
       <c r="AP59" s="1"/>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4756,7 +4742,7 @@
       <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4800,7 +4786,7 @@
       <c r="AO61" s="1"/>
       <c r="AP61" s="1"/>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4844,7 +4830,7 @@
       <c r="AO62" s="1"/>
       <c r="AP62" s="1"/>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4888,7 +4874,7 @@
       <c r="AO63" s="1"/>
       <c r="AP63" s="1"/>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4932,7 +4918,7 @@
       <c r="AO64" s="1"/>
       <c r="AP64" s="1"/>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4976,7 +4962,7 @@
       <c r="AO65" s="1"/>
       <c r="AP65" s="1"/>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -5020,7 +5006,7 @@
       <c r="AO66" s="1"/>
       <c r="AP66" s="1"/>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -5064,7 +5050,7 @@
       <c r="AO67" s="1"/>
       <c r="AP67" s="1"/>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -5108,7 +5094,7 @@
       <c r="AO68" s="1"/>
       <c r="AP68" s="1"/>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -5152,7 +5138,7 @@
       <c r="AO69" s="1"/>
       <c r="AP69" s="1"/>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -5196,7 +5182,7 @@
       <c r="AO70" s="1"/>
       <c r="AP70" s="1"/>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5240,7 +5226,7 @@
       <c r="AO71" s="1"/>
       <c r="AP71" s="1"/>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5284,7 +5270,7 @@
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5328,7 +5314,7 @@
       <c r="AO73" s="1"/>
       <c r="AP73" s="1"/>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5372,7 +5358,7 @@
       <c r="AO74" s="1"/>
       <c r="AP74" s="1"/>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5416,7 +5402,7 @@
       <c r="AO75" s="1"/>
       <c r="AP75" s="1"/>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5460,7 +5446,7 @@
       <c r="AO76" s="1"/>
       <c r="AP76" s="1"/>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5504,7 +5490,7 @@
       <c r="AO77" s="1"/>
       <c r="AP77" s="1"/>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5548,7 +5534,7 @@
       <c r="AO78" s="1"/>
       <c r="AP78" s="1"/>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5592,7 +5578,7 @@
       <c r="AO79" s="1"/>
       <c r="AP79" s="1"/>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5636,7 +5622,7 @@
       <c r="AO80" s="1"/>
       <c r="AP80" s="1"/>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5680,7 +5666,7 @@
       <c r="AO81" s="1"/>
       <c r="AP81" s="1"/>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5724,7 +5710,7 @@
       <c r="AO82" s="1"/>
       <c r="AP82" s="1"/>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5768,7 +5754,7 @@
       <c r="AO83" s="1"/>
       <c r="AP83" s="1"/>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5812,7 +5798,7 @@
       <c r="AO84" s="1"/>
       <c r="AP84" s="1"/>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5856,7 +5842,7 @@
       <c r="AO85" s="1"/>
       <c r="AP85" s="1"/>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5900,7 +5886,7 @@
       <c r="AO86" s="1"/>
       <c r="AP86" s="1"/>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5944,7 +5930,7 @@
       <c r="AO87" s="1"/>
       <c r="AP87" s="1"/>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5988,7 +5974,7 @@
       <c r="AO88" s="1"/>
       <c r="AP88" s="1"/>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6032,7 +6018,7 @@
       <c r="AO89" s="1"/>
       <c r="AP89" s="1"/>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6076,7 +6062,7 @@
       <c r="AO90" s="1"/>
       <c r="AP90" s="1"/>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6120,7 +6106,7 @@
       <c r="AO91" s="1"/>
       <c r="AP91" s="1"/>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6164,7 +6150,7 @@
       <c r="AO92" s="1"/>
       <c r="AP92" s="1"/>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -6208,7 +6194,7 @@
       <c r="AO93" s="1"/>
       <c r="AP93" s="1"/>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -6254,12 +6240,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="N12:N19"/>
-    <mergeCell ref="N20:N30"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A37:M39"/>
     <mergeCell ref="A34:M36"/>
     <mergeCell ref="G1:H1"/>
@@ -6268,6 +6248,12 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="N12:N19"/>
+    <mergeCell ref="N20:N30"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modle/_BOM.xlsx
+++ b/Modle/_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_PersonalProjects\MyReducer\Modle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DEE71D-DD36-41C7-9865-1B6E5ABCB88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3147FFC2-7A89-45DB-8838-7162B387F634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="157">
   <si>
     <t>BOM序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,6 +637,10 @@
   </si>
   <si>
     <t>A03FT060201AAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注2：位置码并不能唯一确定物料，在当前规则下，装配结构不合理可能导致不同位置的物料具有相同位置代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1103,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1305,6 +1309,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1330,7 +1337,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1639,7 +1646,7 @@
   <dimension ref="A1:AP94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="A40" sqref="A40:M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1657,36 +1664,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="82" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="77" t="s">
+      <c r="H1" s="84"/>
+      <c r="I1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="79" t="s">
+      <c r="N1" s="80" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="1"/>
@@ -1719,7 +1726,7 @@
       <c r="AP1" s="1"/>
     </row>
     <row r="2" spans="1:42" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
+      <c r="A2" s="86"/>
       <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
@@ -1741,12 +1748,12 @@
       <c r="H2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="80"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="81"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1926,7 +1933,7 @@
       <c r="M5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="76" t="s">
+      <c r="N5" s="77" t="s">
         <v>102</v>
       </c>
       <c r="O5" s="1"/>
@@ -1988,7 +1995,7 @@
       <c r="M6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="75"/>
+      <c r="N6" s="76"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -2347,7 +2354,7 @@
       <c r="M12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="73" t="s">
+      <c r="N12" s="74" t="s">
         <v>101</v>
       </c>
       <c r="O12" s="1"/>
@@ -2409,7 +2416,7 @@
       <c r="M13" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N13" s="74"/>
+      <c r="N13" s="75"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2469,7 +2476,7 @@
       <c r="M14" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="74"/>
+      <c r="N14" s="75"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2529,7 +2536,7 @@
       <c r="M15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="N15" s="74"/>
+      <c r="N15" s="75"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -2589,7 +2596,7 @@
       <c r="M16" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="74"/>
+      <c r="N16" s="75"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -2649,7 +2656,7 @@
       <c r="M17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="N17" s="74"/>
+      <c r="N17" s="75"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -2709,7 +2716,7 @@
       <c r="M18" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N18" s="74"/>
+      <c r="N18" s="75"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2769,7 +2776,7 @@
       <c r="M19" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="74"/>
+      <c r="N19" s="75"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2829,7 +2836,7 @@
       <c r="M20" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="N20" s="73" t="s">
+      <c r="N20" s="74" t="s">
         <v>101</v>
       </c>
       <c r="O20" s="1"/>
@@ -2891,7 +2898,7 @@
       <c r="M21" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="74"/>
+      <c r="N21" s="75"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2951,7 +2958,7 @@
       <c r="M22" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="N22" s="74"/>
+      <c r="N22" s="75"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -3011,7 +3018,7 @@
       <c r="M23" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="N23" s="74"/>
+      <c r="N23" s="75"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -3070,7 +3077,7 @@
       <c r="M24" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="N24" s="74"/>
+      <c r="N24" s="75"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -3130,7 +3137,7 @@
       <c r="M25" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="N25" s="74"/>
+      <c r="N25" s="75"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -3189,7 +3196,7 @@
       <c r="M26" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="N26" s="74"/>
+      <c r="N26" s="75"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -3249,7 +3256,7 @@
       <c r="M27" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="N27" s="74"/>
+      <c r="N27" s="75"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -3307,7 +3314,7 @@
       <c r="M28" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="N28" s="74"/>
+      <c r="N28" s="75"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -3367,7 +3374,7 @@
       <c r="M29" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="N29" s="74"/>
+      <c r="N29" s="75"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -3427,7 +3434,7 @@
       <c r="M30" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="N30" s="75"/>
+      <c r="N30" s="76"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -3550,22 +3557,22 @@
       <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A34" s="81" t="s">
+    <row r="34" spans="1:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
       <c r="N34" s="11"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -3597,19 +3604,19 @@
       <c r="AP34" s="1"/>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
       <c r="N35" s="11"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -3641,19 +3648,19 @@
       <c r="AP35" s="1"/>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
       <c r="N36" s="11"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -3685,21 +3692,21 @@
       <c r="AP36" s="1"/>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
       <c r="N37" s="11"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -3731,19 +3738,19 @@
       <c r="AP37" s="1"/>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A38" s="81"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
       <c r="N38" s="11"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -3775,19 +3782,19 @@
       <c r="AP38" s="1"/>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
       <c r="N39" s="11"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -3819,19 +3826,21 @@
       <c r="AP39" s="1"/>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="11"/>
+      <c r="A40" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
       <c r="N40" s="11"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -3863,19 +3872,19 @@
       <c r="AP40" s="1"/>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="11"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
       <c r="N41" s="11"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -3907,19 +3916,19 @@
       <c r="AP41" s="1"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="11"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
       <c r="N42" s="11"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -6239,7 +6248,14 @@
       <c r="AP94" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A40:M42"/>
+    <mergeCell ref="N12:N19"/>
+    <mergeCell ref="N20:N30"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A37:M39"/>
     <mergeCell ref="A34:M36"/>
     <mergeCell ref="G1:H1"/>
@@ -6248,12 +6264,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="N12:N19"/>
-    <mergeCell ref="N20:N30"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
